--- a/server/template/facturacion.xlsx
+++ b/server/template/facturacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Hoja1" state="visible" r:id="rId4"/>
@@ -13,8 +13,251 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAdI
+56985    (2024-01-01 21:04:46)
+Razón Social que está en Odoo.
+En caso de que necesiten por RUT, se debe cambiar el nombre de este campo a 
+partner_id_vat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAdM
+56985    (2024-01-01 21:04:46)
+Viene con fórmula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAck
+56985    (2024-01-01 21:04:46)
+Viene con fórmula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAdo
+56985    (2024-01-01 21:04:46)
+Siempre debe ser Facturas de cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAc4
+56985    (2024-01-01 21:04:46)
+Moneda de la transacción
+Chile - CLP
+Peru - SOL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAcc
+56985    (2024-01-01 21:04:46)
+Línea de producto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAcY
+56985    (2024-01-01 21:04:46)
+Debe ser el Mes de Consumo a cobrar + Año
+Ejemplo Formato:
+Octubre 2022</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAcs
+56985    (2024-01-01 21:04:46)
+Cantidad.
+Para Conectividad Gestionada debe ser 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAcU
+56985    (2024-01-01 21:04:46)
+Precio Unitario
+Debe ser Base imponible</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAcw
+56985    (2024-01-01 21:04:46)
+Impuestos
+Debe ser 
+IVA 19% Venta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAdw
+56985    (2024-01-01 21:04:46)
+Debe ser en porcentaje, escrbiendo el número correspondiente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAcg
+56985    (2024-01-01 21:04:46)
+Categoría
+Debe ser Conectividad Gestionada
+Este campo ayudará a separar por categorías las facturas (Plataformas, Conectividad, etc).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color theme="1"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAABDMqKAdc
+56985    (2024-01-01 21:04:46)
+Notas extras</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="155">
   <si>
     <t>Empresa</t>
   </si>
@@ -34,7 +277,7 @@
     <t>Moneda</t>
   </si>
   <si>
-    <t>invoice_line_ids/product_id/id</t>
+    <t>invoice_line_ids/product_id</t>
   </si>
   <si>
     <t>invoice_line_ids/name</t>
@@ -46,7 +289,7 @@
     <t>invoice_line_ids/price_unit</t>
   </si>
   <si>
-    <t>invoice_line_ids/tax_ids</t>
+    <t>invoice_line_ids/tax_ids/id</t>
   </si>
   <si>
     <t>invoice_line_ids/discount</t>
@@ -58,54 +301,448 @@
     <t>Terms and Conditions</t>
   </si>
   <si>
-    <t>SAMTECH S.A.</t>
-  </si>
-  <si>
-    <t>__export__.res_partner_21383_bc09d155</t>
-  </si>
-  <si>
-    <t>04/12/23</t>
-  </si>
-  <si>
-    <t>14/12/23</t>
+    <t>l10n_ec_sri_payment_id</t>
+  </si>
+  <si>
+    <t>DELGADO TELLO EDGAR GUSTAVO</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38110_88e289df</t>
+  </si>
+  <si>
+    <t>03/01/24</t>
+  </si>
+  <si>
+    <t>13/01/24</t>
   </si>
   <si>
     <t>Facturas de cliente</t>
   </si>
   <si>
-    <t>CLP</t>
-  </si>
-  <si>
-    <t>__export__.product_product_725_194cd9a3</t>
-  </si>
-  <si>
-    <t>Consumo Noviembre 2023</t>
-  </si>
-  <si>
-    <t>IVA 19% Vta</t>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Servicios de Conectividad</t>
+  </si>
+  <si>
+    <t>Consumo Diciembre 2023</t>
+  </si>
+  <si>
+    <t>l10n_ec.6_tax_vat_411</t>
   </si>
   <si>
     <t>Conectividad Gestionada</t>
   </si>
   <si>
-    <t>Servicios de Conectividad Gestionada</t>
-  </si>
-  <si>
-    <t>SEGUIMIENTO FLOTA Y MOVILES DEL SUR SPA</t>
-  </si>
-  <si>
-    <t>__export__.res_partner_21395_1f18be43</t>
+    <t>Debo y pagaré incondicionalmente y sin protesto esta factura a M2M DATAGOBAL LATAM ECUADOR CIA LTDA. El valor de la factura (s) pendiente (s) EN EFECTIVO/DEPOSITO/TRANSFERENCIA A LA CUENTA CORRIENTE BANCO PICHINCHA N° 2100202222 DE M2M DATAGLOBAL. El recibo y retención lo enviare al correo electrónico alejandra.valencia@m2mdataglobal.com. Declaro, que los datos para la generación de la presente factura son verídicos y autorizo en forma expresa a; M2M DATAGLOBAL LATAM ECUADOR CIA LTDA. A Solicitar o publicar toda la información crediticia o de mora en cualquier fuente de información o publicaciones, incluidos los Burós de Crédito legalmente autorizados por la Superintendencia de Compañías y que para gestionar cobros y demás no será requisito que las facturas tengan firma alguna</t>
+  </si>
+  <si>
+    <t>Otros con utilización del sistema financiero</t>
+  </si>
+  <si>
+    <t>MAYA PIONEER GPS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38113_5814bba4</t>
+  </si>
+  <si>
+    <t>JOINTECH - IOT S.A</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38101_840f143c</t>
+  </si>
+  <si>
+    <t>MFT IOT SOLUTIONS S.A.S</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38102_166a6083</t>
+  </si>
+  <si>
+    <t>RADIALNET</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38106_45683bb3</t>
+  </si>
+  <si>
+    <t>AINTRACK S.A.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38111_25d03c07</t>
+  </si>
+  <si>
+    <t>ELECOMGPS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38100_000c507a</t>
+  </si>
+  <si>
+    <t>VANGUARDIAN-TECHNOLOGY CIA.LTDA.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38154_42959969</t>
+  </si>
+  <si>
+    <t>RASE SATELITAL ECUARASEGPS CIA. LTDA.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38143_bc973db3</t>
+  </si>
+  <si>
+    <t>JAIRO MARCILLO PEREZ</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38099_427af4e7</t>
+  </si>
+  <si>
+    <t>PITBULL SEGURIDAD SATELITAL</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38095_b0a675af</t>
+  </si>
+  <si>
+    <t>NEXTGEN S.A.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38103_6abaa46f</t>
+  </si>
+  <si>
+    <t>POSITIONINGTRACKER S.A.S.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38135_d1d5a457</t>
+  </si>
+  <si>
+    <t>MORA SUAREZ JORGE LUIS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38120_5a30d8b7</t>
+  </si>
+  <si>
+    <t>IQCOMMSECURITY CIA.LTDA.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38098_a3f2a4fb</t>
+  </si>
+  <si>
+    <t>JIREH</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38105_5c4b1d52</t>
+  </si>
+  <si>
+    <t>TAURUS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38112_a580186d</t>
+  </si>
+  <si>
+    <t>OLIMPOLOGISTICS. S.A</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38116_cb9deeb7</t>
+  </si>
+  <si>
+    <t>MACAVENT S.A.S.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38117_e4072401</t>
+  </si>
+  <si>
+    <t>UBIKAR ECUADOR S.A.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38137_83d1210b</t>
+  </si>
+  <si>
+    <t>CHOEZ MOREIRA JORGE JIMMY</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38125_c29ae531</t>
+  </si>
+  <si>
+    <t>ML WAREHOUSE INC</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_36947_7af47a73</t>
+  </si>
+  <si>
+    <t>BETRATONIX</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38124_6200ae41</t>
+  </si>
+  <si>
+    <t>SECURITY SYTEM CHAKARITTO S.A.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38126_5c95b365</t>
+  </si>
+  <si>
+    <t>AGUILERA LOAIZA MELVA JUDITH</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38121_9d94975f</t>
+  </si>
+  <si>
+    <t>365SECURITY BY VANGELS SECURITY S.A.S. B.I.C.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38130_0b0c95bb</t>
+  </si>
+  <si>
+    <t>PROVEEDORA ANDINA DE ALARMAS INCORPORADAS S.A. PRANAINC</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38134_b939fde4</t>
+  </si>
+  <si>
+    <t>SOLUCIONES INTEGRALES &amp; INGENIERIA S2I INTEGRADORA DE PROYECTOS, PROCESOS Y SERVICIOS CIA.LTDA.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38141_829752e8</t>
+  </si>
+  <si>
+    <t>TRACKAUTO</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38146_4f6dad26</t>
+  </si>
+  <si>
+    <t>PILATASIG MEDINA ANGEL EDUARDO</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38144_12a0efd0</t>
+  </si>
+  <si>
+    <t>GUAÑA FERNANDEZ WILLIAM VINICIO</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38145_605f660e</t>
+  </si>
+  <si>
+    <t>SPEED LOCATOR</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42135_63f89319</t>
+  </si>
+  <si>
+    <t>TOMALA COLOMA TATIANA KATHERINE</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38147_19b311cd</t>
+  </si>
+  <si>
+    <t>NAVIATICORP S.A.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38148_f9372c88</t>
+  </si>
+  <si>
+    <t>GESFLOT S.A.S.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38149_72b7bf7c</t>
+  </si>
+  <si>
+    <t>ERIKA ANDREA MUÑOZ NARVAEZ</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40161_5745273c</t>
+  </si>
+  <si>
+    <t>MASHAROS TECH</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_39137_7a05cd05</t>
+  </si>
+  <si>
+    <t>SOTEC7 S.A.S</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38236_8da1b5ac</t>
+  </si>
+  <si>
+    <t>José Carlos García Quiroz</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_39544_b7ba3c8a</t>
+  </si>
+  <si>
+    <t>PADLOCKINTELLIGENT S.A.S.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40191_e98a27f6</t>
+  </si>
+  <si>
+    <t>Transporte Correa e Hijos S.A.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40205_d37aca76</t>
+  </si>
+  <si>
+    <t>COMERCIAL C.L.Z</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40374_9baf3d06</t>
+  </si>
+  <si>
+    <t>ELBRUN</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40401_23e8115d</t>
+  </si>
+  <si>
+    <t>CARTRACKER</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40466_25f71c23</t>
+  </si>
+  <si>
+    <t>GHAZAL</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40563_e9bbc476</t>
+  </si>
+  <si>
+    <t>GPS MM</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40568_c2ef785b</t>
+  </si>
+  <si>
+    <t>Logitrack Ec</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40878_a8089085</t>
+  </si>
+  <si>
+    <t>LIBER HELPTRACKING S.A.S</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_40996_caff7795</t>
+  </si>
+  <si>
+    <t>COMPUVENTAS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_41027_20ea60be</t>
+  </si>
+  <si>
+    <t>JARK SOLUTIONS S.A.S.</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_38334_24acde68</t>
+  </si>
+  <si>
+    <t>LIDER SEGURIDAD ECUADOR</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_41350_cb33f1a1</t>
+  </si>
+  <si>
+    <t>RASTREOS DEL SUR</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_41518_b7794488</t>
+  </si>
+  <si>
+    <t>GSM TRACKING PROTECTION LOCATION TPL GSMTRACK S.A</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_41515_98b8b317</t>
+  </si>
+  <si>
+    <t>Trackmigo</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_41585_b9523b0c</t>
+  </si>
+  <si>
+    <t>WAYTRACK S.A.S</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_41937_67b8665c</t>
+  </si>
+  <si>
+    <t>GPSPLUSS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42019_482ceaf6</t>
+  </si>
+  <si>
+    <t>Prepacking</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42407_51470e24</t>
+  </si>
+  <si>
+    <t>Prismalsat</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42500_778a549b</t>
+  </si>
+  <si>
+    <t>LAMARTRANSA</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42675_f9cf97cd</t>
+  </si>
+  <si>
+    <t>Drivetracker</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42852_c4eb1561</t>
+  </si>
+  <si>
+    <t>Freddy Pérez</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42957_88e358de</t>
+  </si>
+  <si>
+    <t>Sdgrastrack</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_42983_2b10b2f0</t>
+  </si>
+  <si>
+    <t>SEOGPS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_44914_950e9ff2</t>
+  </si>
+  <si>
+    <t>GPSCAMARAS</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_45092_4c0b98d7</t>
+  </si>
+  <si>
+    <t>CORPAREDES SA</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_45268_158dcfe9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -130,9 +767,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,7 +790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,164 +1086,3118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>122984600.32000001</v>
+        <v>22.41</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3747780.0300000003</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3">
-        <v>128700</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>7.370000000000001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>27.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>165.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>28.13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>35.17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>155.67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>99.58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>62.33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>95.68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>43.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>272.21000000000004</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>97.09</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>71.24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>20.9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>40.56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>93.32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>200.35000000000002</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>203.73</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>89.75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>71.74</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>123.3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>49.35</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>156.87</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>126.95</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2.19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>60.69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>52.45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>54.91</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>20.23</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>99.5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>32.5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>436.57</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>78.03</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>6.8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>6.470000000000001</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>424.58000000000004</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>57.17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>52.89</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>212.93</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>17.88</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3.48</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>416.37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>8.94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>40.92</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>13.23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>84.25</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>6.57</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>19.9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>4.98</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>57.51</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>11.77</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>51.74</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>4.47</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>5.97</v>
+      </c>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>6.71</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>28.029999999999998</v>
+      </c>
+      <c r="K59" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>11.450000000000001</v>
+      </c>
+      <c r="K60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1.99</v>
+      </c>
+      <c r="K61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1.62</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>13.89</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1.49</v>
+      </c>
+      <c r="K65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1.99</v>
+      </c>
+      <c r="K66" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>